--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1109,11 +1109,22 @@
       <c r="A58" s="7" t="n">
         <v>45419</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="4" t="n">
         <v>0.6903854503352791</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="4" t="n">
         <v>0.4432024588132771</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4890487536656892</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.1819452973803098</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1120,11 +1120,33 @@
       <c r="A59" s="7" t="n">
         <v>45420</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="4" t="n">
         <v>0.4890487536656892</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="4" t="n">
         <v>0.1819452973803098</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>0.6412730468603912</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>0.1761640738414802</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.6201051762353862</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.2330468272044637</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1142,11 +1142,22 @@
       <c r="A61" s="7" t="n">
         <v>45422</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="4" t="n">
         <v>0.6201051762353862</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="4" t="n">
         <v>0.2330468272044637</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8097819969231924</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.2135298947396395</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1153,11 +1153,22 @@
       <c r="A62" s="7" t="n">
         <v>45426</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="4" t="n">
         <v>0.8097819969231924</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="4" t="n">
         <v>0.2135298947396395</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.641699530009184</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.8346253776408044</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1164,11 +1164,22 @@
       <c r="A63" s="7" t="n">
         <v>45428</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="4" t="n">
         <v>1.641699530009184</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="4" t="n">
         <v>0.8346253776408044</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.590583640702973</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.103258196858334</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1175,11 +1175,33 @@
       <c r="A64" s="7" t="n">
         <v>45429</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="4" t="n">
         <v>1.590583640702973</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="4" t="n">
         <v>1.103258196858334</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>1.590583640702973</v>
+      </c>
+      <c r="C65" s="4" t="n">
+        <v>1.103258196858334</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.7346579637806361</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9860775513439305</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1197,11 +1197,22 @@
       <c r="A66" s="7" t="n">
         <v>45432</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="4" t="n">
         <v>0.7346579637806361</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="4" t="n">
         <v>0.9860775513439305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.6132066082802548</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9850689761671059</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1208,11 +1208,22 @@
       <c r="A67" s="7" t="n">
         <v>45433</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="4" t="n">
         <v>0.6132066082802548</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="4" t="n">
         <v>0.9850689761671059</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5962772306774097</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.7799422806133018</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1219,11 +1219,22 @@
       <c r="A68" s="7" t="n">
         <v>45434</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="4" t="n">
         <v>0.5962772306774097</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="4" t="n">
         <v>0.7799422806133018</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.7374814954061611</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.032866905704393</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1230,11 +1230,22 @@
       <c r="A69" s="7" t="n">
         <v>45435</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="4" t="n">
         <v>0.7374814954061611</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="4" t="n">
         <v>1.032866905704393</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.7410807669959326</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.7367802766844923</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1241,11 +1241,22 @@
       <c r="A70" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="4" t="n">
         <v>0.7410807669959326</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="4" t="n">
         <v>0.7367802766844923</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.7305470190534726</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5544336511944357</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1252,11 +1252,22 @@
       <c r="A71" s="7" t="n">
         <v>45439</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="4" t="n">
         <v>0.7305470190534726</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="4" t="n">
         <v>0.5544336511944357</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7436326487476662</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.508497724916504</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1263,11 +1263,22 @@
       <c r="A72" s="7" t="n">
         <v>45440</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="4" t="n">
         <v>0.7436326487476662</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="4" t="n">
         <v>0.508497724916504</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8313288680013322</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.8444559336673687</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1274,11 +1274,22 @@
       <c r="A73" s="7" t="n">
         <v>45441</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="4" t="n">
         <v>0.8313288680013322</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="4" t="n">
         <v>0.8444559336673687</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.6882369008057541</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.5073077132712266</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1285,11 +1285,22 @@
       <c r="A74" s="7" t="n">
         <v>45443</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="4" t="n">
         <v>0.6882369008057541</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="4" t="n">
         <v>0.5073077132712266</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5881220486741736</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.644000059749913</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1296,11 +1296,22 @@
       <c r="A75" s="7" t="n">
         <v>45446</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="4" t="n">
         <v>0.5881220486741736</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="4" t="n">
         <v>0.644000059749913</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9046636705223605</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.6823532299177114</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1307,11 +1307,22 @@
       <c r="A76" s="7" t="n">
         <v>45447</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="4" t="n">
         <v>0.9046636705223605</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="4" t="n">
         <v>0.6823532299177114</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.6992448287183978</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.6165349491923955</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1318,11 +1318,22 @@
       <c r="A77" s="7" t="n">
         <v>45448</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="4" t="n">
         <v>0.6992448287183978</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="4" t="n">
         <v>0.6165349491923955</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="n">
+        <v>45450</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8941891378655527</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.9337935310617562</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1329,11 +1329,22 @@
       <c r="A78" s="7" t="n">
         <v>45450</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="4" t="n">
         <v>0.8941891378655527</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="4" t="n">
         <v>0.9337935310617562</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8709767571847781</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.458547006497399</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1340,11 +1340,22 @@
       <c r="A79" s="7" t="n">
         <v>45453</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="4" t="n">
         <v>0.8709767571847781</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="4" t="n">
         <v>0.458547006497399</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8612450611330617</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.139829594016724</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1351,11 +1351,22 @@
       <c r="A80" s="7" t="n">
         <v>45454</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="4" t="n">
         <v>0.8612450611330617</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="4" t="n">
         <v>1.139829594016724</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9228737584783067</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.9104915058383918</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1362,11 +1362,22 @@
       <c r="A81" s="7" t="n">
         <v>45455</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="4" t="n">
         <v>0.9228737584783067</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="4" t="n">
         <v>0.9104915058383918</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.0212885517301</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.399853604869753</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1373,11 +1373,22 @@
       <c r="A82" s="7" t="n">
         <v>45456</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="4" t="n">
         <v>1.0212885517301</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="4" t="n">
         <v>1.399853604869753</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.051961639058413</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.394331149983867</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1384,11 +1384,22 @@
       <c r="A83" s="7" t="n">
         <v>45457</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="4" t="n">
         <v>1.051961639058413</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="4" t="n">
         <v>1.394331149983867</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8026066114051733</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.065051429765209</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1395,11 +1395,22 @@
       <c r="A84" s="7" t="n">
         <v>45460</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="4" t="n">
         <v>0.8026066114051733</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="4" t="n">
         <v>1.065051429765209</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.7492683151660406</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.7822850585705511</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1406,11 +1406,22 @@
       <c r="A85" s="7" t="n">
         <v>45461</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="4" t="n">
         <v>0.7492683151660406</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="4" t="n">
         <v>0.7822850585705511</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.6258115958537419</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.5323168593270994</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1417,11 +1417,22 @@
       <c r="A86" s="7" t="n">
         <v>45462</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="4" t="n">
         <v>0.6258115958537419</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="4" t="n">
         <v>0.5323168593270994</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5627345244899481</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.7226240356923077</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1428,11 +1428,33 @@
       <c r="A87" s="7" t="n">
         <v>45463</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="4" t="n">
         <v>0.5627345244899481</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="4" t="n">
         <v>0.7226240356923077</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="C88" s="4" t="n">
+        <v>0.2811318243093698</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.58090917178187</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.6277287172126107</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1450,11 +1450,22 @@
       <c r="A89" s="7" t="n">
         <v>45464</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="4" t="n">
         <v>0.58090917178187</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="4" t="n">
         <v>0.6277287172126107</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.6763219524220387</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.8709044807164464</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1461,11 +1461,22 @@
       <c r="A90" s="7" t="n">
         <v>45467</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="4" t="n">
         <v>0.6763219524220387</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="4" t="n">
         <v>0.8709044807164464</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6917660105350707</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.5996939568756375</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1472,11 +1472,22 @@
       <c r="A91" s="7" t="n">
         <v>45468</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="4" t="n">
         <v>0.6917660105350707</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="4" t="n">
         <v>0.5996939568756375</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7645113669914378</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.6604758230140721</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1483,11 +1483,22 @@
       <c r="A92" s="7" t="n">
         <v>45469</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="4" t="n">
         <v>0.7645113669914378</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="4" t="n">
         <v>0.6604758230140721</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6798464070213933</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.4043861470679671</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1494,11 +1494,22 @@
       <c r="A93" s="7" t="n">
         <v>45470</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="4" t="n">
         <v>0.6798464070213933</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="4" t="n">
         <v>0.4043861470679671</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6735863377609108</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.4650754843582332</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1505,11 +1505,22 @@
       <c r="A94" s="7" t="n">
         <v>45471</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="4" t="n">
         <v>0.6735863377609108</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="4" t="n">
         <v>0.4650754843582332</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.7030505141195835</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.3763565944896882</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1516,11 +1516,22 @@
       <c r="A95" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="4" t="n">
         <v>0.7030505141195835</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="4" t="n">
         <v>0.3763565944896882</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.7023712920385898</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.4718802815227447</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1527,11 +1527,22 @@
       <c r="A96" s="7" t="n">
         <v>45475</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="4" t="n">
         <v>0.7023712920385898</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="4" t="n">
         <v>0.4718802815227447</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.8128907986368351</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.803616356253835</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1538,11 +1538,22 @@
       <c r="A97" s="7" t="n">
         <v>45476</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="4" t="n">
         <v>0.8128907986368351</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="4" t="n">
         <v>0.803616356253835</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8318846909805634</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.7349405262594024</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1549,11 +1549,22 @@
       <c r="A98" s="7" t="n">
         <v>45477</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="4" t="n">
         <v>0.8318846909805634</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="4" t="n">
         <v>0.7349405262594024</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.6773841111284532</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.5838313911370464</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1560,11 +1560,22 @@
       <c r="A99" s="7" t="n">
         <v>45478</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="4" t="n">
         <v>0.6773841111284532</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="4" t="n">
         <v>0.5838313911370464</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.6640022635636981</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.3843324245288484</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1571,11 +1571,22 @@
       <c r="A100" s="7" t="n">
         <v>45481</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="4" t="n">
         <v>0.6640022635636981</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="4" t="n">
         <v>0.3843324245288484</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5955389960223554</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.3802284848996321</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1582,11 +1582,22 @@
       <c r="A101" s="7" t="n">
         <v>45482</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="4" t="n">
         <v>0.5955389960223554</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="4" t="n">
         <v>0.3802284848996321</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.8706943549586162</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.7306458839484764</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1593,11 +1593,22 @@
       <c r="A102" s="7" t="n">
         <v>45483</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="4" t="n">
         <v>0.8706943549586162</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="4" t="n">
         <v>0.7306458839484764</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7693640902901002</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.4965375248952929</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1604,11 +1604,22 @@
       <c r="A103" s="7" t="n">
         <v>45484</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="4" t="n">
         <v>0.7693640902901002</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="4" t="n">
         <v>0.4965375248952929</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.6540900244836462</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.5174514975641212</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1615,11 +1615,22 @@
       <c r="A104" s="7" t="n">
         <v>45485</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="4" t="n">
         <v>0.6540900244836462</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="4" t="n">
         <v>0.5174514975641212</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.5957070707070707</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.3153678931039468</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1626,11 +1626,22 @@
       <c r="A105" s="7" t="n">
         <v>45488</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="4" t="n">
         <v>0.5957070707070707</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="4" t="n">
         <v>0.3153678931039468</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.8567626510923003</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.3168517884856116</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1637,11 +1637,22 @@
       <c r="A106" s="7" t="n">
         <v>45489</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="4" t="n">
         <v>0.8567626510923003</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="4" t="n">
         <v>0.3168517884856116</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.6488434598468806</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.8513659293989422</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1648,11 +1648,22 @@
       <c r="A107" s="7" t="n">
         <v>45490</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="4" t="n">
         <v>0.6488434598468806</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="4" t="n">
         <v>0.8513659293989422</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.8019685039370079</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.2871547619024428</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1659,11 +1659,22 @@
       <c r="A108" s="7" t="n">
         <v>45491</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="4" t="n">
         <v>0.8019685039370079</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="4" t="n">
         <v>0.2871547619024428</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.4416645172384146</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.4839617034526493</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1670,11 +1670,22 @@
       <c r="A109" s="7" t="n">
         <v>45492</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="4" t="n">
         <v>0.4416645172384146</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="4" t="n">
         <v>0.4839617034526493</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7663887054161163</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.084637183174103</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1681,11 +1681,22 @@
       <c r="A110" s="7" t="n">
         <v>45495</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="4" t="n">
         <v>0.7663887054161163</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="4" t="n">
         <v>1.084637183174103</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.6335977898987037</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.8387371326961329</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1692,11 +1692,22 @@
       <c r="A111" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="4" t="n">
         <v>0.6335977898987037</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="4" t="n">
         <v>0.8387371326961329</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5988173616191172</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.5674085547649239</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1703,11 +1703,22 @@
       <c r="A112" s="7" t="n">
         <v>45497</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="4" t="n">
         <v>0.5988173616191172</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="4" t="n">
         <v>0.5674085547649239</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.8019942012587511</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.8568523572017276</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1714,11 +1714,22 @@
       <c r="A113" s="7" t="n">
         <v>45498</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="4" t="n">
         <v>0.8019942012587511</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="4" t="n">
         <v>0.8568523572017276</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.8064323679357848</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.232192582231347</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1725,11 +1725,22 @@
       <c r="A114" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="4" t="n">
         <v>0.8064323679357848</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="4" t="n">
         <v>1.232192582231347</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.9180713388449067</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.380852460608948</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1736,11 +1736,22 @@
       <c r="A115" s="7" t="n">
         <v>45502</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="4" t="n">
         <v>0.9180713388449067</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="4" t="n">
         <v>1.380852460608948</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.8697619900367922</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.7804775164126438</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1747,11 +1747,22 @@
       <c r="A116" s="7" t="n">
         <v>45503</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="4" t="n">
         <v>0.8697619900367922</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="4" t="n">
         <v>0.7804775164126438</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.709493264913406</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.5091114750600427</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1758,11 +1758,22 @@
       <c r="A117" s="7" t="n">
         <v>45504</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="4" t="n">
         <v>0.709493264913406</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="4" t="n">
         <v>0.5091114750600427</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.8657357679914071</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.8581673676541335</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1769,11 +1769,22 @@
       <c r="A118" s="7" t="n">
         <v>45505</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="4" t="n">
         <v>0.8657357679914071</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="4" t="n">
         <v>0.8581673676541335</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="7" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.9743434587922062</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.480137755910382</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1780,11 +1780,22 @@
       <c r="A119" s="7" t="n">
         <v>45506</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="4" t="n">
         <v>0.9743434587922062</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="4" t="n">
         <v>1.480137755910382</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.243851293716235</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.434720149549897</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1791,11 +1791,22 @@
       <c r="A120" s="7" t="n">
         <v>45509</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="4" t="n">
         <v>1.243851293716235</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="4" t="n">
         <v>1.434720149549897</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.6418972998020136</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.7158470093185603</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1802,11 +1802,22 @@
       <c r="A121" s="7" t="n">
         <v>45510</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="4" t="n">
         <v>0.6418972998020136</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="4" t="n">
         <v>0.7158470093185603</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.8289850917431193</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.018874841556197</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1813,11 +1813,22 @@
       <c r="A122" s="7" t="n">
         <v>45511</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="4" t="n">
         <v>0.8289850917431193</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="4" t="n">
         <v>1.018874841556197</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.6215149921094161</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.6860872071276312</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1824,11 +1824,22 @@
       <c r="A123" s="7" t="n">
         <v>45512</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="4" t="n">
         <v>0.6215149921094161</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" s="4" t="n">
         <v>0.6860872071276312</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.8312348668280871</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.892770876594303</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1835,11 +1835,22 @@
       <c r="A124" s="7" t="n">
         <v>45513</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="4" t="n">
         <v>0.8312348668280871</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" s="4" t="n">
         <v>0.892770876594303</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="7" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.5257472216469938</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.4596503019164734</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1846,11 +1846,22 @@
       <c r="A125" s="7" t="n">
         <v>45516</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="4" t="n">
         <v>0.5257472216469938</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" s="4" t="n">
         <v>0.4596503019164734</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.9054814161244072</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.6746019856002494</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1857,11 +1857,22 @@
       <c r="A126" s="7" t="n">
         <v>45517</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="4" t="n">
         <v>0.9054814161244072</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" s="4" t="n">
         <v>0.6746019856002494</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.8168769868028128</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.6607548997747452</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1868,11 +1868,22 @@
       <c r="A127" s="7" t="n">
         <v>45518</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" s="4" t="n">
         <v>0.8168769868028128</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="4" t="n">
         <v>0.6607548997747452</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7358378449755711</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.4340460538906248</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1879,11 +1879,22 @@
       <c r="A128" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" s="4" t="n">
         <v>0.7358378449755711</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128" s="4" t="n">
         <v>0.4340460538906248</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.6435150234032916</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.4774350085849982</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1890,11 +1890,22 @@
       <c r="A129" s="7" t="n">
         <v>45520</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" s="4" t="n">
         <v>0.6435150234032916</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" s="4" t="n">
         <v>0.4774350085849982</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.6726741063436176</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.6882936997812658</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1901,11 +1901,22 @@
       <c r="A130" s="7" t="n">
         <v>45523</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="4" t="n">
         <v>0.6726741063436176</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" s="4" t="n">
         <v>0.6882936997812658</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7799012113371752</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.102497177616349</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1912,11 +1912,22 @@
       <c r="A131" s="7" t="n">
         <v>45524</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="4" t="n">
         <v>0.7799012113371752</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" s="4" t="n">
         <v>1.102497177616349</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="7" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.8637132228610078</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.052849469036998</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1923,11 +1923,22 @@
       <c r="A132" s="7" t="n">
         <v>45525</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="4" t="n">
         <v>0.8637132228610078</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" s="4" t="n">
         <v>1.052849469036998</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="7" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.6268384587334387</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.5711273607777625</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1934,11 +1934,22 @@
       <c r="A133" s="7" t="n">
         <v>45526</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" s="4" t="n">
         <v>0.6268384587334387</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" s="4" t="n">
         <v>0.5711273607777625</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="7" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.5951794029033142</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5248658562877619</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1945,11 +1945,22 @@
       <c r="A134" s="7" t="n">
         <v>45527</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" s="4" t="n">
         <v>0.5951794029033142</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" s="4" t="n">
         <v>0.5248658562877619</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="7" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.8455197744938926</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.3819771513385825</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1956,11 +1956,22 @@
       <c r="A135" s="7" t="n">
         <v>45530</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="4" t="n">
         <v>0.8455197744938926</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" s="4" t="n">
         <v>0.3819771513385825</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="7" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7039832047208352</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.4190340662645585</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1967,11 +1967,22 @@
       <c r="A136" s="7" t="n">
         <v>45531</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" s="4" t="n">
         <v>0.7039832047208352</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" s="4" t="n">
         <v>0.4190340662645585</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.6478916589719914</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.4034957407487966</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1978,11 +1978,22 @@
       <c r="A137" s="7" t="n">
         <v>45532</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" s="4" t="n">
         <v>0.6478916589719914</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" s="4" t="n">
         <v>0.4034957407487966</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="7" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.506163708086785</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.3539932582021866</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1989,11 +1989,22 @@
       <c r="A138" s="7" t="n">
         <v>45533</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" s="4" t="n">
         <v>0.506163708086785</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138" s="4" t="n">
         <v>0.3539932582021866</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="7" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.6216452487105516</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.4117146786177041</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2000,11 +2000,22 @@
       <c r="A139" s="7" t="n">
         <v>45534</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" s="4" t="n">
         <v>0.6216452487105516</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139" s="4" t="n">
         <v>0.4117146786177041</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.6109652002626396</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.4173811193727615</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2011,11 +2011,22 @@
       <c r="A140" s="7" t="n">
         <v>45537</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" s="4" t="n">
         <v>0.6109652002626396</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140" s="4" t="n">
         <v>0.4173811193727615</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.8174442190669371</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.7195758681072361</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2022,11 +2022,22 @@
       <c r="A141" s="7" t="n">
         <v>45538</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" s="4" t="n">
         <v>0.8174442190669371</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" s="4" t="n">
         <v>0.7195758681072361</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.6056608028867839</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.4969692381222654</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2033,11 +2033,22 @@
       <c r="A142" s="7" t="n">
         <v>45539</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" s="4" t="n">
         <v>0.6056608028867839</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142" s="4" t="n">
         <v>0.4969692381222654</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.600719007306042</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.458814851877005</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2044,11 +2044,22 @@
       <c r="A143" s="7" t="n">
         <v>45540</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" s="4" t="n">
         <v>0.600719007306042</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" s="4" t="n">
         <v>0.458814851877005</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9247455974651149</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.8707825244380948</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2055,11 +2055,22 @@
       <c r="A144" s="7" t="n">
         <v>45541</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" s="4" t="n">
         <v>0.9247455974651149</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144" s="4" t="n">
         <v>0.8707825244380948</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.6553040632669758</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.3946664400922769</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2066,11 +2066,22 @@
       <c r="A145" s="7" t="n">
         <v>45544</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" s="4" t="n">
         <v>0.6553040632669758</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145" s="4" t="n">
         <v>0.3946664400922769</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9369594664999479</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.6455909384551615</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2077,11 +2077,22 @@
       <c r="A146" s="7" t="n">
         <v>45545</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" s="4" t="n">
         <v>0.9369594664999479</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146" s="4" t="n">
         <v>0.6455909384551615</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.6369889481412783</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.4077165952503756</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2088,11 +2088,22 @@
       <c r="A147" s="7" t="n">
         <v>45546</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" s="4" t="n">
         <v>0.6369889481412783</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147" s="4" t="n">
         <v>0.4077165952503756</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.6111654282362143</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.6682055475015346</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2099,11 +2099,22 @@
       <c r="A148" s="7" t="n">
         <v>45547</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" s="4" t="n">
         <v>0.6111654282362143</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148" s="4" t="n">
         <v>0.6682055475015346</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.5877663138148198</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.6057822545476449</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2110,11 +2110,22 @@
       <c r="A149" s="7" t="n">
         <v>45548</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" s="4" t="n">
         <v>0.5877663138148198</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149" s="4" t="n">
         <v>0.6057822545476449</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="7" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.6285814116002795</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.4757941301703488</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2121,11 +2121,22 @@
       <c r="A150" s="7" t="n">
         <v>45551</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" s="4" t="n">
         <v>0.6285814116002795</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150" s="4" t="n">
         <v>0.4757941301703488</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9287876286390402</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.6144823245630044</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2132,11 +2132,22 @@
       <c r="A151" s="7" t="n">
         <v>45552</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" s="4" t="n">
         <v>0.9287876286390402</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151" s="4" t="n">
         <v>0.6144823245630044</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="7" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.6365058087578195</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.761612225595767</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2143,11 +2143,22 @@
       <c r="A152" s="7" t="n">
         <v>45553</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" s="4" t="n">
         <v>0.6365058087578195</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152" s="4" t="n">
         <v>0.761612225595767</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9704071602255678</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.9477797261930861</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2154,11 +2154,22 @@
       <c r="A153" s="7" t="n">
         <v>45554</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" s="4" t="n">
         <v>0.9704071602255678</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153" s="4" t="n">
         <v>0.9477797261930861</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="7" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9230232152208064</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.5075163100772921</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2165,10 +2165,21 @@
       <c r="A154" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" s="4" t="n">
         <v>0.9230232152208064</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154" s="4" t="n">
+        <v>0.5075163100772921</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="7" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9230232152208064</v>
+      </c>
+      <c r="C155" t="n">
         <v>0.5075163100772921</v>
       </c>
     </row>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2176,11 +2176,22 @@
       <c r="A155" s="7" t="n">
         <v>45558</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" s="4" t="n">
         <v>0.9230232152208064</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155" s="4" t="n">
         <v>0.5075163100772921</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="7" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7179365830572646</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.069356580426168</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2187,11 +2187,22 @@
       <c r="A156" s="7" t="n">
         <v>45559</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" s="4" t="n">
         <v>0.7179365830572646</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156" s="4" t="n">
         <v>1.069356580426168</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="7" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7070274068868587</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.6006747647867817</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2198,11 +2198,22 @@
       <c r="A157" s="7" t="n">
         <v>45560</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" s="4" t="n">
         <v>0.7070274068868587</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157" s="4" t="n">
         <v>0.6006747647867817</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="7" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7507597425813372</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.05907722546146</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2209,11 +2209,22 @@
       <c r="A158" s="7" t="n">
         <v>45561</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" s="4" t="n">
         <v>0.7507597425813372</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" s="4" t="n">
         <v>1.05907722546146</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="7" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.688781163434903</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.7306593784548475</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2220,11 +2220,22 @@
       <c r="A159" s="7" t="n">
         <v>45562</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" s="4" t="n">
         <v>0.688781163434903</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159" s="4" t="n">
         <v>0.7306593784548475</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="7" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.8205839416058394</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.9152855260624407</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2231,11 +2231,22 @@
       <c r="A160" s="7" t="n">
         <v>45565</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" s="4" t="n">
         <v>0.8205839416058394</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160" s="4" t="n">
         <v>0.9152855260624407</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="7" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.5160551254903322</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.509764261566322</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2242,11 +2242,22 @@
       <c r="A161" s="7" t="n">
         <v>45566</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" s="4" t="n">
         <v>0.5160551254903322</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161" s="4" t="n">
         <v>0.509764261566322</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="7" t="n">
+        <v>45567</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.6795588289722048</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.5589085082871134</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2253,11 +2253,22 @@
       <c r="A162" s="7" t="n">
         <v>45567</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" s="4" t="n">
         <v>0.6795588289722048</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162" s="4" t="n">
         <v>0.5589085082871134</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="7" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.6134084565284813</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.4372005487290924</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2264,11 +2264,22 @@
       <c r="A163" s="7" t="n">
         <v>45568</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" s="4" t="n">
         <v>0.6134084565284813</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163" s="4" t="n">
         <v>0.4372005487290924</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="7" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.4485356745069777</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.3612174221387261</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2275,11 +2275,22 @@
       <c r="A164" s="7" t="n">
         <v>45569</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" s="4" t="n">
         <v>0.4485356745069777</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164" s="4" t="n">
         <v>0.3612174221387261</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="7" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.6917564829226748</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.2929614388093592</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2286,11 +2286,22 @@
       <c r="A165" s="7" t="n">
         <v>45572</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" s="4" t="n">
         <v>0.6917564829226748</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165" s="4" t="n">
         <v>0.2929614388093592</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="7" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7866660623640319</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.4898282573485509</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>
